--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a0a0a6bd95d402f/Documents/OpenClassrooms/Developpeur_Web/Projet_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_5A81ED5323ABBB538F7231002AC4FA02FDE9485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532A6626-E106-4EC4-A58F-6947257220DC}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="11_5A81ED5323ABBB538F7231002AC4FA02FDE9485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD96DF4-E495-461F-ACA3-86B70EB1E24A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
   <si>
     <t>Catégorie</t>
   </si>
@@ -60,18 +60,9 @@
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Plusieurs fois le même ID</t>
-  </si>
-  <si>
-    <t>faire des classes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pas de titre </t>
   </si>
   <si>
-    <t>accessibilité</t>
-  </si>
-  <si>
     <t>Responsive</t>
   </si>
   <si>
@@ -81,47 +72,284 @@
     <t>texte dépasse en mobile et tablette</t>
   </si>
   <si>
-    <t>balise meta</t>
-  </si>
-  <si>
-    <t>raccourci accueil a l'accueil</t>
-  </si>
-  <si>
-    <t>Page 2 bouton acceuil hots page</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
-    <t>passer tout les contacts en page 2</t>
-  </si>
-  <si>
-    <t>text page d'accueil</t>
-  </si>
-  <si>
-    <t>ID bloc sur les deux pages</t>
-  </si>
-  <si>
-    <t>langue défault</t>
-  </si>
-  <si>
-    <t>pas de choix de langue problème pour les TA</t>
-  </si>
-  <si>
-    <t>Choisir la langue principale du site</t>
-  </si>
-  <si>
-    <t>contraste</t>
-  </si>
-  <si>
-    <t>problème de contraste</t>
+    <t>mettre en place les header mai et footer a la place des div</t>
+  </si>
+  <si>
+    <t>les pages ne possèdent pas de titre</t>
+  </si>
+  <si>
+    <t>toujours mettre un titre à ses pages</t>
+  </si>
+  <si>
+    <t>mettre le titre page d'accueil du site et à la page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">après avoir coder son desktop, toujours faire le responsive </t>
+  </si>
+  <si>
+    <t>balise meta keyboard</t>
+  </si>
+  <si>
+    <t>balise meta desription</t>
+  </si>
+  <si>
+    <t>aucune desription précisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rechercher les mots clé les plus adaptés au site et les ajouter </t>
+  </si>
+  <si>
+    <t>supprimer tout les mots clé abusifs et en mettre de vrais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajouter une description du site </t>
+  </si>
+  <si>
+    <t>toujours mettre une description du site</t>
+  </si>
+  <si>
+    <t>Lang default</t>
+  </si>
+  <si>
+    <t>pas de langue précisé pour le site</t>
+  </si>
+  <si>
+    <t>choisir la langue principale du site</t>
+  </si>
+  <si>
+    <t>toujours préciser la langue dans laquelle le site sera</t>
+  </si>
+  <si>
+    <t>temps de chargement</t>
+  </si>
+  <si>
+    <t>le chargement de la page d'accueil est long</t>
+  </si>
+  <si>
+    <t>bien dimentionner les images importées</t>
+  </si>
+  <si>
+    <t>redimentionner les 3 images les plus longues à charger</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>Modifier la couleur des text qui sont devant les images</t>
+  </si>
+  <si>
+    <t>toujours verifier si le ratio est conforme</t>
+  </si>
+  <si>
+    <t>SEO et accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas assez de contrast entre les images de font et les text </t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
+  </si>
+  <si>
+    <t>faire le responsive de la version mobile</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941044-inspectez-manuellement-le-contenu</t>
+  </si>
+  <si>
+    <t>https://wave.webaim.org/report#/https://kroos78170.github.io/P4_noncorriger/</t>
+  </si>
+  <si>
+    <t>trop de mot clé</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578338-reconnaissez-les-differents-types-de-mots-cles</t>
+  </si>
+  <si>
+    <t>utiliser des balises header/main/footer dans son html</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.fr/marketing/balises-semantiques</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
+  </si>
+  <si>
+    <t>lien redondant</t>
+  </si>
+  <si>
+    <t>ne pas mettre de lien inutile</t>
+  </si>
+  <si>
+    <t>retirer les liens inutiles</t>
+  </si>
+  <si>
+    <t>liens vers la page d'accueil dans la page d'accueil</t>
+  </si>
+  <si>
+    <t>alt image</t>
+  </si>
+  <si>
+    <t>pas de alt sur les images</t>
+  </si>
+  <si>
+    <t>toujours mettre un alt sur les images pour les décrire pour les TA</t>
+  </si>
+  <si>
+    <t>mettre un alt a chaque image</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite</t>
+  </si>
+  <si>
+    <t>H1 de la même couleur que le fond en page 2</t>
+  </si>
+  <si>
+    <t>respecter le contrast entre le fond et le texte pour la lisibilité</t>
+  </si>
+  <si>
+    <t>changer la couleur du H1 de la page 2</t>
+  </si>
+  <si>
+    <t>https://kroos78170.github.io/P4_noncorriger/</t>
+  </si>
+  <si>
+    <t>texte illisible</t>
+  </si>
+  <si>
+    <t>texte illisible autour du logo page d'accueil</t>
+  </si>
+  <si>
+    <t>ne pas mettre de texte inutile dans la page pour tromper google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supprimer le texte inutile </t>
+  </si>
+  <si>
+    <t>https://www.blogdumoderateur.com/google-techniques-interdites-spam/</t>
+  </si>
+  <si>
+    <t>Excés de lien</t>
+  </si>
+  <si>
+    <t>trop de lien vers d'autres pages 'partenaire'</t>
+  </si>
+  <si>
+    <t>éssayer de mettre les lien dans la page incluse au texte si possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supprimer les deux listes d'annuaire </t>
+  </si>
+  <si>
+    <t>problème de titre</t>
+  </si>
+  <si>
+    <t>H1 suivi de H3</t>
+  </si>
+  <si>
+    <t>classer les titre dans l'ordre H1 H2 H3</t>
+  </si>
+  <si>
+    <t>https://wave.webaim.org/report#/https://kroos78170.github.io/P4_noncorriger/index.html</t>
+  </si>
+  <si>
+    <t>remettre les titre des pages en ordre</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>problème avec le label du formulaire contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lier le label au formulaire </t>
+  </si>
+  <si>
+    <t>https://wave.webaim.org/report#/https://kroos78170.github.io/P4_noncorriger/page2.html</t>
+  </si>
+  <si>
+    <t>lien invisible</t>
+  </si>
+  <si>
+    <t>Liens invisible dans le footer de la page 2</t>
+  </si>
+  <si>
+    <t>changer la couleur des icones qu'elles soient visible</t>
+  </si>
+  <si>
+    <t>lier le label au formulaire</t>
+  </si>
+  <si>
+    <t>faire un contrast conforme pour que ce soit bien visible</t>
+  </si>
+  <si>
+    <t>https://kroos78170.github.io/P4_noncorriger/page2.html</t>
+  </si>
+  <si>
+    <t>absence de site maps</t>
+  </si>
+  <si>
+    <t>robot ne sait pas ce qu'il doit lire</t>
+  </si>
+  <si>
+    <t>rajouter le fichier sitemaps et robot.txt</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055216-ameliorez-votre-crawlabilite-pour-une-meilleure-indexation</t>
+  </si>
+  <si>
+    <t>image en trop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image pour montrer du texte </t>
+  </si>
+  <si>
+    <t>ne jamais mettre d'image pour presenter un texte</t>
+  </si>
+  <si>
+    <t>supprimer l'image par un bloc code</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941114-testez-votre-contenu-a-laide-de-technologies-dassistance</t>
+  </si>
+  <si>
+    <t>CSS dans le html</t>
+  </si>
+  <si>
+    <t>mettre le css dans le fichier css</t>
+  </si>
+  <si>
+    <t>passer le css dans le fichier style.css</t>
+  </si>
+  <si>
+    <t>https://www.miss-seo-girl.com/21-erreurs-html-et-css-a-eviter/</t>
+  </si>
+  <si>
+    <t>mauvaise valeur css</t>
+  </si>
+  <si>
+    <t>padding "constant"</t>
+  </si>
+  <si>
+    <t>mettre de bonnes valeurs dans le css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier les mauvaises valeur et en mettre de bonnes </t>
+  </si>
+  <si>
+    <t>https://validator.w3.org/nu/#file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +378,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -183,10 +424,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,8 +436,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,19 +655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="4" width="39.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,99 +720,182 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -573,42 +903,231 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1576,9 +2095,30 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{8A2EBB16-A92F-4BEF-92AE-29AFEDD4C003}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{4989036B-AF40-41C0-9E25-2749CCDF713F}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{7434317C-E7A3-4BA5-B631-7D3BA819BF1D}"/>
+    <hyperlink ref="F10" r:id="rId4" location="/https://kroos78170.github.io/P4_noncorriger/" xr:uid="{600FC346-5F38-4F27-9483-F00F51FD4625}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00F657F7-FFFA-4A58-B994-0CA00BF44511}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{35DD7C07-09D3-4CAE-9A28-28950774C985}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{1EE1393F-1371-42D8-9457-FDBB3497670D}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{F2CB8C60-37D0-43B7-8CAC-E0391751016B}"/>
+    <hyperlink ref="F11" r:id="rId9" location="/https://kroos78170.github.io/P4_noncorriger/" xr:uid="{DFE80D84-9290-4E7E-9D56-4C59315F6F0F}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{E58E0658-B98F-4589-A644-F6A2393707D7}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{419BB36F-06A9-4BF2-AB69-CF831A98C61F}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{6C3FB0D7-955D-4302-B15A-69A8DE64CD73}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{CB02C1FB-6C11-4409-8A60-0FFCE66F46D1}"/>
+    <hyperlink ref="F16" r:id="rId14" location="/https://kroos78170.github.io/P4_noncorriger/index.html" xr:uid="{454014EE-4BD9-4563-89DC-5EC8DC0B128F}"/>
+    <hyperlink ref="F17" r:id="rId15" location="/https://kroos78170.github.io/P4_noncorriger/page2.html" xr:uid="{DEA17153-AAF2-4BE9-8707-03D05C3EECFF}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{57CD75C2-90AF-4085-95B7-01375932B127}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{9F3E3068-F976-4993-99A3-A8E6A74F701D}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{C2AE8296-882E-4D62-8EB6-249BB8079A4C}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{EDB56859-D9C9-466E-B4D3-B109FF6C6529}"/>
+    <hyperlink ref="F22" r:id="rId20" location="file" xr:uid="{B9BA66DD-104A-46F9-BEB5-4D690265AEEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId21"/>
 </worksheet>
 </file>